--- a/logs_regression (copy).xlsx
+++ b/logs_regression (copy).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" state="visible" r:id="rId2"/>
@@ -209,22 +209,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:64823"/>
+  <dimension ref="A1:AD64823"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A783" activeCellId="0" sqref="2:783"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A809" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A848" activeCellId="0" sqref="2:848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -318,1000 +318,6 @@
       <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1493,186 +499,186 @@
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="364" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1870,6 +876,15 @@
     <row r="556" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="558" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1891,6 +906,20 @@
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="588" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1972,65 +1001,65 @@
     <row r="681" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="682" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="683" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
